--- a/media/Td7xvAKqJe5wZMRLwjpoDD5uwlmscZO5jXW2NPseGuVPT0g8ATh2021_11_26_00_21_46_672473.xlsx
+++ b/media/Td7xvAKqJe5wZMRLwjpoDD5uwlmscZO5jXW2NPseGuVPT0g8ATh2021_11_26_00_21_46_672473.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,141 +483,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>mohit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>experimentallyf@gmail.com</t>
+          <t>bollyknow@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>577577575</t>
+          <t>757657622</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ncbb</t>
+          <t>dnbb fbdf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>wtp</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>demo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['a', 'c']</t>
+          <t>['b', 'c']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['f']</t>
+          <t>['h']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['v', 'b']</t>
+          <t>['b', 'n']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mohit</t>
+          <t>dhdhg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bollyknow@gmail.com</t>
+          <t>experimentallyf@gmail.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>757657622</t>
+          <t>hjdshhj</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dnbb fbdf</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>wtp</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>demo</t>
-        </is>
-      </c>
+          <t>hggd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['b', 'c']</t>
+          <t>['a']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['h']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['n', 'b']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mohit satija admin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mohit@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>867574575</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>madda nagar</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>fi</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>te</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['b', 'd', 'a', 'c']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['e']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['n', 'm']</t>
+          <t>['v']</t>
         </is>
       </c>
     </row>
